--- a/Code/Results/Cases/Case_7_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_49/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.756361876048175</v>
+        <v>1.026228309218169</v>
       </c>
       <c r="C2">
-        <v>0.6500816023991263</v>
+        <v>0.1349287273555859</v>
       </c>
       <c r="D2">
-        <v>0.07469167771161977</v>
+        <v>0.2052916441622159</v>
       </c>
       <c r="E2">
-        <v>0.1317262906059362</v>
+        <v>0.171096689967726</v>
       </c>
       <c r="F2">
-        <v>1.888151955323835</v>
+        <v>0.8356207409359442</v>
       </c>
       <c r="G2">
-        <v>0.0008032535073850052</v>
+        <v>0.0008127178987711344</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2151103287963849</v>
+        <v>0.1866890368279144</v>
       </c>
       <c r="K2">
-        <v>0.7657741479802525</v>
+        <v>1.065403902544858</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8392163144318552</v>
+        <v>0.8200503472878509</v>
       </c>
       <c r="O2">
-        <v>1.205705131617108</v>
+        <v>1.882301883842302</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391563240544258</v>
+        <v>0.8917716953514798</v>
       </c>
       <c r="C3">
-        <v>0.5616890452861583</v>
+        <v>0.1184310351917759</v>
       </c>
       <c r="D3">
-        <v>0.06592855906585271</v>
+        <v>0.1809945603024801</v>
       </c>
       <c r="E3">
-        <v>0.1170398311732157</v>
+        <v>0.1521336398823152</v>
       </c>
       <c r="F3">
-        <v>1.739934750498989</v>
+        <v>0.8003580603279943</v>
       </c>
       <c r="G3">
-        <v>0.0008107456730322951</v>
+        <v>0.0008164995841046995</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1916652970506476</v>
+        <v>0.1672047506771932</v>
       </c>
       <c r="K3">
-        <v>0.6635319800094734</v>
+        <v>0.9253585034612968</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.891833512717767</v>
+        <v>0.8619628278471088</v>
       </c>
       <c r="O3">
-        <v>1.116077218113375</v>
+        <v>1.841791602697441</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.170664844879752</v>
+        <v>0.8095244118152038</v>
       </c>
       <c r="C4">
-        <v>0.5081006104298638</v>
+        <v>0.1082993786956195</v>
       </c>
       <c r="D4">
-        <v>0.06060125511933023</v>
+        <v>0.1662012122163361</v>
       </c>
       <c r="E4">
-        <v>0.1082093895443634</v>
+        <v>0.1406496429058812</v>
       </c>
       <c r="F4">
-        <v>1.653059759217513</v>
+        <v>0.780125978304504</v>
       </c>
       <c r="G4">
-        <v>0.0008154737307692366</v>
+        <v>0.0008189001650457425</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1776557173074664</v>
+        <v>0.1554655352528869</v>
       </c>
       <c r="K4">
-        <v>0.6015999929977269</v>
+        <v>0.8396026152601905</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.925742206267266</v>
+        <v>0.8887967333174278</v>
       </c>
       <c r="O4">
-        <v>1.063864880796146</v>
+        <v>1.820484733703609</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.081321886024341</v>
+        <v>0.7760724153633305</v>
       </c>
       <c r="C5">
-        <v>0.4864097904031155</v>
+        <v>0.1041688200246824</v>
       </c>
       <c r="D5">
-        <v>0.05844222112109776</v>
+        <v>0.1602014225325235</v>
       </c>
       <c r="E5">
-        <v>0.1046531653573055</v>
+        <v>0.136006693233071</v>
       </c>
       <c r="F5">
-        <v>1.618607873880677</v>
+        <v>0.7722209925715831</v>
       </c>
       <c r="G5">
-        <v>0.0008174338782956542</v>
+        <v>0.0008198985179149402</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1720338991962223</v>
+        <v>0.1507338067487325</v>
       </c>
       <c r="K5">
-        <v>0.5765459850878685</v>
+        <v>0.8047015475392811</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9399462123143252</v>
+        <v>0.9000017772792934</v>
       </c>
       <c r="O5">
-        <v>1.043237015361932</v>
+        <v>1.812658858493251</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.06652448916094</v>
+        <v>0.7705212503247765</v>
       </c>
       <c r="C6">
-        <v>0.4828162165867127</v>
+        <v>0.1034827965175964</v>
       </c>
       <c r="D6">
-        <v>0.05808439104294649</v>
+        <v>0.1592068099069905</v>
       </c>
       <c r="E6">
-        <v>0.1040650757288866</v>
+        <v>0.1352378711912152</v>
       </c>
       <c r="F6">
-        <v>1.612942109067063</v>
+        <v>0.770928409989402</v>
       </c>
       <c r="G6">
-        <v>0.0008177614137721498</v>
+        <v>0.0008200655168503177</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1711053949306134</v>
+        <v>0.1499511321695692</v>
       </c>
       <c r="K6">
-        <v>0.5723960884747115</v>
+        <v>0.7989086034818627</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9423276208973519</v>
+        <v>0.9018784912129987</v>
       </c>
       <c r="O6">
-        <v>1.0398493125481</v>
+        <v>1.81140999611516</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.169457330723162</v>
+        <v>0.8090730227939957</v>
       </c>
       <c r="C7">
-        <v>0.5078075176538448</v>
+        <v>0.1082436816199674</v>
       </c>
       <c r="D7">
-        <v>0.0605720914213137</v>
+        <v>0.166120184741132</v>
       </c>
       <c r="E7">
-        <v>0.1081612640543348</v>
+        <v>0.1405868812934514</v>
       </c>
       <c r="F7">
-        <v>1.652591392884887</v>
+        <v>0.7800180153269451</v>
       </c>
       <c r="G7">
-        <v>0.0008155000290401837</v>
+        <v>0.0008189135473264386</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1775795588416784</v>
+        <v>0.1554015160755</v>
       </c>
       <c r="K7">
-        <v>0.6012613981151276</v>
+        <v>0.8391317615135279</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9259322250121436</v>
+        <v>0.8889467635034229</v>
       </c>
       <c r="O7">
-        <v>1.063584133902296</v>
+        <v>1.820375773332501</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.629874108505987</v>
+        <v>0.9797950686881052</v>
       </c>
       <c r="C8">
-        <v>0.6194457608282278</v>
+        <v>0.1292399138705917</v>
       </c>
       <c r="D8">
-        <v>0.07165814310370422</v>
+        <v>0.1968862644686027</v>
       </c>
       <c r="E8">
-        <v>0.1266205568235144</v>
+        <v>0.1645231625515891</v>
       </c>
       <c r="F8">
-        <v>1.836133860350586</v>
+        <v>0.8231569884474084</v>
       </c>
       <c r="G8">
-        <v>0.0008058110733670649</v>
+        <v>0.0008140057110704534</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.206940264822606</v>
+        <v>0.1799216688447984</v>
       </c>
       <c r="K8">
-        <v>0.7303276025306715</v>
+        <v>1.01705969398509</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8570158157618941</v>
+        <v>0.8342695962807256</v>
       </c>
       <c r="O8">
-        <v>1.174178656804145</v>
+        <v>1.867568991585216</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.562345783266551</v>
+        <v>1.31769445805719</v>
       </c>
       <c r="C9">
-        <v>0.8450704552703883</v>
+        <v>0.1704632758911373</v>
       </c>
       <c r="D9">
-        <v>0.09389662822840705</v>
+        <v>0.2583502540343403</v>
       </c>
       <c r="E9">
-        <v>0.1645425244878282</v>
+        <v>0.2128818003205808</v>
       </c>
       <c r="F9">
-        <v>2.233224512041588</v>
+        <v>0.9198348135155925</v>
       </c>
       <c r="G9">
-        <v>0.0007877622344703503</v>
+        <v>0.0008049894962887304</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2680651893996782</v>
+        <v>0.2299909627571708</v>
       </c>
       <c r="K9">
-        <v>0.9915655092280673</v>
+        <v>1.368475609309911</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.735405515635982</v>
+        <v>0.7360754295827912</v>
       </c>
       <c r="O9">
-        <v>1.416399780938718</v>
+        <v>1.990323429000568</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.273374842352951</v>
+        <v>1.568840806690446</v>
       </c>
       <c r="C10">
-        <v>1.016901807595616</v>
+        <v>0.200881285284666</v>
       </c>
       <c r="D10">
-        <v>0.1106578713572617</v>
+        <v>0.3044060018462318</v>
       </c>
       <c r="E10">
-        <v>0.1938250109429234</v>
+        <v>0.2495076173462323</v>
       </c>
       <c r="F10">
-        <v>2.554419717931097</v>
+        <v>0.9994437815814337</v>
       </c>
       <c r="G10">
-        <v>0.0007749843967294239</v>
+        <v>0.0007987128296610585</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3158943851476153</v>
+        <v>0.2682943963317967</v>
       </c>
       <c r="K10">
-        <v>1.190690121155185</v>
+        <v>1.629176828088589</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6555848318272695</v>
+        <v>0.6698776338560055</v>
       </c>
       <c r="O10">
-        <v>1.614418124865679</v>
+        <v>2.101746257112211</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.604483564706925</v>
+        <v>1.683959409071292</v>
       </c>
       <c r="C11">
-        <v>1.096896055512332</v>
+        <v>0.2147721917683612</v>
       </c>
       <c r="D11">
-        <v>0.1184048491701333</v>
+        <v>0.325602518279311</v>
       </c>
       <c r="E11">
-        <v>0.2075492202804625</v>
+        <v>0.2664628478499296</v>
       </c>
       <c r="F11">
-        <v>2.708665889151973</v>
+        <v>1.037811506259018</v>
       </c>
       <c r="G11">
-        <v>0.000769251755167949</v>
+        <v>0.0007959274645895682</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.338480416926302</v>
+        <v>0.2861223517491425</v>
       </c>
       <c r="K11">
-        <v>1.283407603187385</v>
+        <v>1.7485609218364</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.621667252460675</v>
+        <v>0.6411584190530752</v>
       </c>
       <c r="O11">
-        <v>1.71003141722305</v>
+        <v>2.157716577685221</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.731157450817875</v>
+        <v>1.727697881674203</v>
       </c>
       <c r="C12">
-        <v>1.127498859265302</v>
+        <v>0.2200421827648995</v>
       </c>
       <c r="D12">
-        <v>0.1213588224008646</v>
+        <v>0.333668727737674</v>
       </c>
       <c r="E12">
-        <v>0.2128131707026455</v>
+        <v>0.2729304841763636</v>
       </c>
       <c r="F12">
-        <v>2.768409275194358</v>
+        <v>1.052675717374669</v>
       </c>
       <c r="G12">
-        <v>0.0007670901654447393</v>
+        <v>0.0007948823040449326</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3471706465974336</v>
+        <v>0.2929378615005902</v>
       </c>
       <c r="K12">
-        <v>1.318878214768148</v>
+        <v>1.793903019866292</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6091992407674809</v>
+        <v>0.6304932886159134</v>
       </c>
       <c r="O12">
-        <v>1.747145406421993</v>
+        <v>2.179730802167256</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.703815321619572</v>
+        <v>1.718271205724534</v>
       </c>
       <c r="C13">
-        <v>1.120893349129176</v>
+        <v>0.2189067245023324</v>
       </c>
       <c r="D13">
-        <v>0.1207216778796152</v>
+        <v>0.3319296955383493</v>
       </c>
       <c r="E13">
-        <v>0.2116763568395399</v>
+        <v>0.2715353901659583</v>
       </c>
       <c r="F13">
-        <v>2.75548031724756</v>
+        <v>1.049459109814393</v>
       </c>
       <c r="G13">
-        <v>0.0007675553307614055</v>
+        <v>0.0007951069787972553</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3452926240625942</v>
+        <v>0.2914670458687567</v>
       </c>
       <c r="K13">
-        <v>1.311222025772352</v>
+        <v>1.784131490498709</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6118671870673609</v>
+        <v>0.6327807046620286</v>
       </c>
       <c r="O13">
-        <v>1.73910996606142</v>
+        <v>2.174952202426027</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.61487807865484</v>
+        <v>1.687554760633617</v>
       </c>
       <c r="C14">
-        <v>1.099407242815346</v>
+        <v>0.2152055479304806</v>
       </c>
       <c r="D14">
-        <v>0.1186474491059926</v>
+        <v>0.3262653122147441</v>
       </c>
       <c r="E14">
-        <v>0.2079808933659706</v>
+        <v>0.2669939724302353</v>
       </c>
       <c r="F14">
-        <v>2.713553270803658</v>
+        <v>1.0390275234179</v>
       </c>
       <c r="G14">
-        <v>0.0007690737488025533</v>
+        <v>0.0007958412889987468</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3391925010091086</v>
+        <v>0.2866817377270792</v>
       </c>
       <c r="K14">
-        <v>1.286318236093464</v>
+        <v>1.752288437251138</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6206337735013179</v>
+        <v>0.6402767215271594</v>
       </c>
       <c r="O14">
-        <v>1.713065935057827</v>
+        <v>2.159510920531062</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.560575474940777</v>
+        <v>1.668759635440097</v>
       </c>
       <c r="C15">
-        <v>1.086288374218839</v>
+        <v>0.2129398126973143</v>
       </c>
       <c r="D15">
-        <v>0.1173796640794933</v>
+        <v>0.3228009952340898</v>
       </c>
       <c r="E15">
-        <v>0.2057263081834364</v>
+        <v>0.2642184991952519</v>
       </c>
       <c r="F15">
-        <v>2.688050651654606</v>
+        <v>1.032682315841768</v>
       </c>
       <c r="G15">
-        <v>0.0007700049544769206</v>
+        <v>0.0007962923108754316</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3354744729943917</v>
+        <v>0.2837591900950258</v>
       </c>
       <c r="K15">
-        <v>1.271112597469667</v>
+        <v>1.732801719952334</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6260535145180128</v>
+        <v>0.6448959230087918</v>
       </c>
       <c r="O15">
-        <v>1.697234919495898</v>
+        <v>2.150161253921766</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.251905847359694</v>
+        <v>1.56133676353025</v>
       </c>
       <c r="C16">
-        <v>1.011714728953848</v>
+        <v>0.1999747359552089</v>
       </c>
       <c r="D16">
-        <v>0.1101542781363634</v>
+        <v>0.3030260562584601</v>
       </c>
       <c r="E16">
-        <v>0.1929369546178492</v>
+        <v>0.2484058700341194</v>
       </c>
       <c r="F16">
-        <v>2.54451660840877</v>
+        <v>0.9969818330537805</v>
       </c>
       <c r="G16">
-        <v>0.0007753604607975942</v>
+        <v>0.0007988962282723907</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3144365145096373</v>
+        <v>0.2671379562524265</v>
       </c>
       <c r="K16">
-        <v>1.184678201118615</v>
+        <v>1.621392395789314</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6578522046260673</v>
+        <v>0.6717833760198288</v>
       </c>
       <c r="O16">
-        <v>1.608290153805612</v>
+        <v>2.098199793060559</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.064635883186895</v>
+        <v>1.495673365210877</v>
       </c>
       <c r="C17">
-        <v>0.9664665028852539</v>
+        <v>0.1920362495392141</v>
       </c>
       <c r="D17">
-        <v>0.1057549203106305</v>
+        <v>0.2909605840324048</v>
       </c>
       <c r="E17">
-        <v>0.1852004212252751</v>
+        <v>0.2387839267041088</v>
       </c>
       <c r="F17">
-        <v>2.458656846364832</v>
+        <v>0.9756498634653923</v>
       </c>
       <c r="G17">
-        <v>0.0007786648582518385</v>
+        <v>0.0008005112389478032</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3017548743192862</v>
+        <v>0.2570491492466545</v>
       </c>
       <c r="K17">
-        <v>1.132236338167303</v>
+        <v>1.553262687251788</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.677993988021214</v>
+        <v>0.6886418088854072</v>
       </c>
       <c r="O17">
-        <v>1.555217940959238</v>
+        <v>2.06771754785791</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.957631387430695</v>
+        <v>1.457986183577702</v>
       </c>
       <c r="C18">
-        <v>0.9406097120215691</v>
+        <v>0.1874751518261064</v>
       </c>
       <c r="D18">
-        <v>0.1032358433756571</v>
+        <v>0.2840436826921575</v>
       </c>
       <c r="E18">
-        <v>0.180787957070784</v>
+        <v>0.2332770026542406</v>
       </c>
       <c r="F18">
-        <v>2.410027151994015</v>
+        <v>0.9635813166462839</v>
       </c>
       <c r="G18">
-        <v>0.000780573146943156</v>
+        <v>0.0008014467607281397</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2945374749100012</v>
+        <v>0.2512839058031631</v>
       </c>
       <c r="K18">
-        <v>1.102270526910303</v>
+        <v>1.514149314626621</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6898021598353026</v>
+        <v>0.6984689723726292</v>
       </c>
       <c r="O18">
-        <v>1.525205640079719</v>
+        <v>2.050678462195236</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.921517750000817</v>
+        <v>1.445239210735224</v>
       </c>
       <c r="C19">
-        <v>0.9318826719006097</v>
+        <v>0.1859316245900686</v>
       </c>
       <c r="D19">
-        <v>0.1023847912525184</v>
+        <v>0.2817055368590218</v>
       </c>
       <c r="E19">
-        <v>0.179300140163015</v>
+        <v>0.2314170120131962</v>
       </c>
       <c r="F19">
-        <v>2.393686886474271</v>
+        <v>0.9595288923909919</v>
       </c>
       <c r="G19">
-        <v>0.0007812206459522144</v>
+        <v>0.0008017646612366773</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2921064470972112</v>
+        <v>0.2493381580545275</v>
       </c>
       <c r="K19">
-        <v>1.092156987803605</v>
+        <v>1.500918146351808</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6938376270543642</v>
+        <v>0.7018184338498725</v>
       </c>
       <c r="O19">
-        <v>1.515128991386547</v>
+        <v>2.04499232655769</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.084496494161499</v>
+        <v>1.502654854621994</v>
       </c>
       <c r="C20">
-        <v>0.9712654560868259</v>
+        <v>0.1928807921781726</v>
       </c>
       <c r="D20">
-        <v>0.1062220489996548</v>
+        <v>0.292242580579682</v>
       </c>
       <c r="E20">
-        <v>0.1860200582820184</v>
+        <v>0.2398053333920984</v>
       </c>
       <c r="F20">
-        <v>2.467717543077953</v>
+        <v>0.9778997018843825</v>
       </c>
       <c r="G20">
-        <v>0.0007783123197443886</v>
+        <v>0.0008003386373672616</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3030967884264726</v>
+        <v>0.2581191863936567</v>
       </c>
       <c r="K20">
-        <v>1.137798070613215</v>
+        <v>1.560507509621658</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6758265483259152</v>
+        <v>0.686833611225486</v>
       </c>
       <c r="O20">
-        <v>1.560813665245504</v>
+        <v>2.070910940636708</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.640964465421405</v>
+        <v>1.696572805380782</v>
       </c>
       <c r="C21">
-        <v>1.105709387628508</v>
+        <v>0.2162923894834137</v>
       </c>
       <c r="D21">
-        <v>0.1192561239132317</v>
+        <v>0.3279279702801432</v>
       </c>
       <c r="E21">
-        <v>0.209064449061259</v>
+        <v>0.2683265799119212</v>
       </c>
       <c r="F21">
-        <v>2.725830654300324</v>
+        <v>1.042082223726155</v>
       </c>
       <c r="G21">
-        <v>0.0007686275214073834</v>
+        <v>0.0007956253476757747</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3409803692650684</v>
+        <v>0.2880854960866515</v>
       </c>
       <c r="K21">
-        <v>1.293622838747666</v>
+        <v>1.76163770912359</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6180483419822309</v>
+        <v>0.6380691740589048</v>
       </c>
       <c r="O21">
-        <v>1.720690115976055</v>
+        <v>2.164023662043263</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.012273858677588</v>
+        <v>1.824168333911331</v>
       </c>
       <c r="C22">
-        <v>1.195414227090055</v>
+        <v>0.2316514809846808</v>
       </c>
       <c r="D22">
-        <v>0.1278948670426132</v>
+        <v>0.351483141288071</v>
       </c>
       <c r="E22">
-        <v>0.2245201114792366</v>
+        <v>0.2872436268627396</v>
       </c>
       <c r="F22">
-        <v>2.902387847057412</v>
+        <v>1.085996114594039</v>
       </c>
       <c r="G22">
-        <v>0.0007623505285890705</v>
+        <v>0.0007926006437595207</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3665504865048632</v>
+        <v>0.308049195678862</v>
       </c>
       <c r="K22">
-        <v>1.397594520340178</v>
+        <v>1.893879152321631</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.582495324036401</v>
+        <v>0.6074290580743618</v>
       </c>
       <c r="O22">
-        <v>1.830529314571351</v>
+        <v>2.229685565048527</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.813332632564936</v>
+        <v>1.755982495814692</v>
       </c>
       <c r="C23">
-        <v>1.147351400439675</v>
+        <v>0.223447974701358</v>
       </c>
       <c r="D23">
-        <v>0.1232721964078536</v>
+        <v>0.3388885304699158</v>
       </c>
       <c r="E23">
-        <v>0.2162317833119616</v>
+        <v>0.2771202473819088</v>
       </c>
       <c r="F23">
-        <v>2.807376541516902</v>
+        <v>1.062369552174957</v>
       </c>
       <c r="G23">
-        <v>0.0007656966908171301</v>
+        <v>0.0007942100471558522</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3528223728964548</v>
+        <v>0.297357271697976</v>
       </c>
       <c r="K23">
-        <v>1.341888393080225</v>
+        <v>1.82321987586613</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6012570285028005</v>
+        <v>0.6236663195610221</v>
       </c>
       <c r="O23">
-        <v>1.771375883058809</v>
+        <v>2.194179850269876</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.075515471727442</v>
+        <v>1.499498326738262</v>
       </c>
       <c r="C24">
-        <v>0.9690953638166775</v>
+        <v>0.1924989657499765</v>
       </c>
       <c r="D24">
-        <v>0.1060108286408621</v>
+        <v>0.2916629288987451</v>
       </c>
       <c r="E24">
-        <v>0.1856493908495054</v>
+        <v>0.2393434783550958</v>
       </c>
       <c r="F24">
-        <v>2.46361893352568</v>
+        <v>0.9768819429492623</v>
       </c>
       <c r="G24">
-        <v>0.0007784716756032558</v>
+        <v>0.0008004166485889987</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3024898816478867</v>
+        <v>0.257635314230356</v>
       </c>
       <c r="K24">
-        <v>1.135283043107179</v>
+        <v>1.55723195468849</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6768057387684294</v>
+        <v>0.6876506775370528</v>
       </c>
       <c r="O24">
-        <v>1.558282290343598</v>
+        <v>2.069465699806528</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.306153582976776</v>
+        <v>1.225851717611874</v>
       </c>
       <c r="C25">
-        <v>0.7831241913986844</v>
+        <v>0.1592959702323355</v>
       </c>
       <c r="D25">
-        <v>0.08781562829005907</v>
+        <v>0.2415807349204755</v>
       </c>
       <c r="E25">
-        <v>0.1540632112570108</v>
+        <v>0.1996245267148495</v>
       </c>
       <c r="F25">
-        <v>2.12116408426597</v>
+        <v>0.8922666840528422</v>
       </c>
       <c r="G25">
-        <v>0.0007925525563526757</v>
+        <v>0.000807365841671237</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2510760485766781</v>
+        <v>0.2162028212667053</v>
       </c>
       <c r="K25">
-        <v>0.9198062968530536</v>
+        <v>1.273042266912341</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7667322002260377</v>
+        <v>0.7616291953141772</v>
       </c>
       <c r="O25">
-        <v>1.347713094226009</v>
+        <v>1.953600832214875</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.026228309218169</v>
+        <v>0.8995746142132077</v>
       </c>
       <c r="C2">
-        <v>0.1349287273555859</v>
+        <v>0.1426790418956045</v>
       </c>
       <c r="D2">
-        <v>0.2052916441622159</v>
+        <v>0.2727219539824262</v>
       </c>
       <c r="E2">
-        <v>0.171096689967726</v>
+        <v>0.2110814372372189</v>
       </c>
       <c r="F2">
-        <v>0.8356207409359442</v>
+        <v>0.623636771383012</v>
       </c>
       <c r="G2">
-        <v>0.0008127178987711344</v>
+        <v>0.3073960252203705</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6.402760752433068E-05</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1866890368279144</v>
+        <v>0.2829685081473485</v>
       </c>
       <c r="K2">
-        <v>1.065403902544858</v>
+        <v>0.2271657384075461</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2195988634359693</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9813765624785162</v>
       </c>
       <c r="N2">
-        <v>0.8200503472878509</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.882301883842302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.7247670192001259</v>
+      </c>
+      <c r="Q2">
+        <v>1.192234922375434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8917716953514798</v>
+        <v>0.7838820887962754</v>
       </c>
       <c r="C3">
-        <v>0.1184310351917759</v>
+        <v>0.1254397446033835</v>
       </c>
       <c r="D3">
-        <v>0.1809945603024801</v>
+        <v>0.2424946618253045</v>
       </c>
       <c r="E3">
-        <v>0.1521336398823152</v>
+        <v>0.188563131189234</v>
       </c>
       <c r="F3">
-        <v>0.8003580603279943</v>
+        <v>0.5954426896090794</v>
       </c>
       <c r="G3">
-        <v>0.0008164995841046995</v>
+        <v>0.2973509543287278</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.401951982600181E-05</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1672047506771932</v>
+        <v>0.2823211885056125</v>
       </c>
       <c r="K3">
-        <v>0.9253585034612968</v>
+        <v>0.2298916083633067</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1968264442103589</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8561892461170544</v>
       </c>
       <c r="N3">
-        <v>0.8619628278471088</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.841791602697441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.7472619716142965</v>
+      </c>
+      <c r="Q3">
+        <v>1.169316386413556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8095244118152038</v>
+        <v>0.712751839659262</v>
       </c>
       <c r="C4">
-        <v>0.1082993786956195</v>
+        <v>0.1148331812877643</v>
       </c>
       <c r="D4">
-        <v>0.1662012122163361</v>
+        <v>0.2239510624203405</v>
       </c>
       <c r="E4">
-        <v>0.1406496429058812</v>
+        <v>0.1747279830873012</v>
       </c>
       <c r="F4">
-        <v>0.780125978304504</v>
+        <v>0.5787171615751987</v>
       </c>
       <c r="G4">
-        <v>0.0008189001650457425</v>
+        <v>0.2916386651139007</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0001723392107004784</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1554655352528869</v>
+        <v>0.2822247208747157</v>
       </c>
       <c r="K4">
-        <v>0.8396026152601905</v>
+        <v>0.2319119201739834</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1828183446413405</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7791979775325046</v>
       </c>
       <c r="N4">
-        <v>0.8887967333174278</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.820484733703609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.7617190061746548</v>
+      </c>
+      <c r="Q4">
+        <v>1.156832896607781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7760724153633305</v>
+        <v>0.6837378514645138</v>
       </c>
       <c r="C5">
-        <v>0.1041688200246824</v>
+        <v>0.1105049851965134</v>
       </c>
       <c r="D5">
-        <v>0.1602014225325235</v>
+        <v>0.2163970629896994</v>
       </c>
       <c r="E5">
-        <v>0.136006693233071</v>
+        <v>0.1690865706215625</v>
       </c>
       <c r="F5">
-        <v>0.7722209925715831</v>
+        <v>0.5720423873024885</v>
       </c>
       <c r="G5">
-        <v>0.0008198985179149402</v>
+        <v>0.2894204307063077</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0002741595206918745</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1507338067487325</v>
+        <v>0.2822589376698943</v>
       </c>
       <c r="K5">
-        <v>0.8047015475392811</v>
+        <v>0.2328196437696963</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1771019664244093</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7477875493412114</v>
       </c>
       <c r="N5">
-        <v>0.9000017772792934</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.812658858493251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.767769045933683</v>
+      </c>
+      <c r="Q5">
+        <v>1.152130212620989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7705212503247765</v>
+        <v>0.6789183060150492</v>
       </c>
       <c r="C6">
-        <v>0.1034827965175964</v>
+        <v>0.1097859187576233</v>
       </c>
       <c r="D6">
-        <v>0.1592068099069905</v>
+        <v>0.2151428492452112</v>
       </c>
       <c r="E6">
-        <v>0.1352378711912152</v>
+        <v>0.1681495724872519</v>
       </c>
       <c r="F6">
-        <v>0.770928409989402</v>
+        <v>0.5709423839550638</v>
       </c>
       <c r="G6">
-        <v>0.0008200655168503177</v>
+        <v>0.2890585710345022</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.000293505741103095</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1499511321695692</v>
+        <v>0.2822689986943203</v>
       </c>
       <c r="K6">
-        <v>0.7989086034818627</v>
+        <v>0.232975391925164</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1761522426419191</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7425695869494575</v>
       </c>
       <c r="N6">
-        <v>0.9018784912129987</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.81140999611516</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.7687831341038738</v>
+      </c>
+      <c r="Q6">
+        <v>1.151372126019936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8090730227939957</v>
+        <v>0.7123606647500083</v>
       </c>
       <c r="C7">
-        <v>0.1082436816199674</v>
+        <v>0.1147748344063757</v>
       </c>
       <c r="D7">
-        <v>0.166120184741132</v>
+        <v>0.2238491775146514</v>
       </c>
       <c r="E7">
-        <v>0.1405868812934514</v>
+        <v>0.1746519167354705</v>
       </c>
       <c r="F7">
-        <v>0.7800180153269451</v>
+        <v>0.5786265803984563</v>
       </c>
       <c r="G7">
-        <v>0.0008189135473264386</v>
+        <v>0.2916083119935351</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0001735475788755547</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1554015160755</v>
+        <v>0.282224887413463</v>
       </c>
       <c r="K7">
-        <v>0.8391317615135279</v>
+        <v>0.2319238237345616</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1827412857432904</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7787745161302269</v>
       </c>
       <c r="N7">
-        <v>0.8889467635034229</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.820375773332501</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.7617999611788875</v>
+      </c>
+      <c r="Q7">
+        <v>1.156767937430359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9797950686881052</v>
+        <v>0.8597009108879945</v>
       </c>
       <c r="C8">
-        <v>0.1292399138705917</v>
+        <v>0.1367390834275284</v>
       </c>
       <c r="D8">
-        <v>0.1968862644686027</v>
+        <v>0.262295390914943</v>
       </c>
       <c r="E8">
-        <v>0.1645231625515891</v>
+        <v>0.2033181753371451</v>
       </c>
       <c r="F8">
-        <v>0.8231569884474084</v>
+        <v>0.613790019279719</v>
       </c>
       <c r="G8">
-        <v>0.0008140057110704534</v>
+        <v>0.3038349222185133</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.30721201334616E-05</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1799216688447984</v>
+        <v>0.2826815173467097</v>
       </c>
       <c r="K8">
-        <v>1.01705969398509</v>
+        <v>0.2280320065086947</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2117513559595494</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.938235405753943</v>
       </c>
       <c r="N8">
-        <v>0.8342695962807256</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.867568991585216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.7323872422753688</v>
+      </c>
+      <c r="Q8">
+        <v>1.183993678346596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.31769445805719</v>
+        <v>1.148092999721229</v>
       </c>
       <c r="C9">
-        <v>0.1704632758911373</v>
+        <v>0.1796667746788501</v>
       </c>
       <c r="D9">
-        <v>0.2583502540343403</v>
+        <v>0.3378844071806952</v>
       </c>
       <c r="E9">
-        <v>0.2128818003205808</v>
+        <v>0.2595243981976978</v>
       </c>
       <c r="F9">
-        <v>0.9198348135155925</v>
+        <v>0.6876910885157912</v>
       </c>
       <c r="G9">
-        <v>0.0008049894962887304</v>
+        <v>0.33165816762709</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001167211162303783</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2299909627571708</v>
+        <v>0.2860667508257109</v>
       </c>
       <c r="K9">
-        <v>1.368475609309911</v>
+        <v>0.2232778732240668</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2685080288330823</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.250159135194167</v>
       </c>
       <c r="N9">
-        <v>0.7360754295827912</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.990323429000568</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.6799907323490864</v>
+      </c>
+      <c r="Q9">
+        <v>1.250695693145929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.568840806690446</v>
+        <v>1.356621946855512</v>
       </c>
       <c r="C10">
-        <v>0.200881285284666</v>
+        <v>0.209493552639529</v>
       </c>
       <c r="D10">
-        <v>0.3044060018462318</v>
+        <v>0.3850364361966143</v>
       </c>
       <c r="E10">
-        <v>0.2495076173462323</v>
+        <v>0.2899472367702884</v>
       </c>
       <c r="F10">
-        <v>0.9994437815814337</v>
+        <v>0.7352013777851027</v>
       </c>
       <c r="G10">
-        <v>0.0007987128296610585</v>
+        <v>0.3504004738330266</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.003082949601340701</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2682943963317967</v>
+        <v>0.2880558579365271</v>
       </c>
       <c r="K10">
-        <v>1.629176828088589</v>
+        <v>0.2198188024349079</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2957919792030594</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.473764791410872</v>
       </c>
       <c r="N10">
-        <v>0.6698776338560055</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.101746257112211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.6467856591644718</v>
+      </c>
+      <c r="Q10">
+        <v>1.295017032603226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.683959409071292</v>
+        <v>1.422059118075225</v>
       </c>
       <c r="C11">
-        <v>0.2147721917683612</v>
+        <v>0.2086087408840172</v>
       </c>
       <c r="D11">
-        <v>0.325602518279311</v>
+        <v>0.334424293503119</v>
       </c>
       <c r="E11">
-        <v>0.2664628478499296</v>
+        <v>0.2163212802787129</v>
       </c>
       <c r="F11">
-        <v>1.037811506259018</v>
+        <v>0.6705774699729758</v>
       </c>
       <c r="G11">
-        <v>0.0007959274645895682</v>
+        <v>0.3221180390499612</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02146865320072777</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2861223517491425</v>
+        <v>0.270781035687925</v>
       </c>
       <c r="K11">
-        <v>1.7485609218364</v>
+        <v>0.2025212988404625</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1976293358633754</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.52782886525199</v>
       </c>
       <c r="N11">
-        <v>0.6411584190530752</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.157716577685221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.6505669487416839</v>
+      </c>
+      <c r="Q11">
+        <v>1.199030667524951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.727697881674203</v>
+        <v>1.43261583517608</v>
       </c>
       <c r="C12">
-        <v>0.2200421827648995</v>
+        <v>0.2015824980249192</v>
       </c>
       <c r="D12">
-        <v>0.333668727737674</v>
+        <v>0.2851524628059394</v>
       </c>
       <c r="E12">
-        <v>0.2729304841763636</v>
+        <v>0.1580245270202916</v>
       </c>
       <c r="F12">
-        <v>1.052675717374669</v>
+        <v>0.6079640213378212</v>
       </c>
       <c r="G12">
-        <v>0.0007948823040449326</v>
+        <v>0.2947959928191963</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05981469084448321</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2929378615005902</v>
+        <v>0.2558682656331257</v>
       </c>
       <c r="K12">
-        <v>1.793903019866292</v>
+        <v>0.188905728630278</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1289722332889198</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.525455660183837</v>
       </c>
       <c r="N12">
-        <v>0.6304932886159134</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.179730802167256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.6631932177357598</v>
+      </c>
+      <c r="Q12">
+        <v>1.10992145659597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.718271205724534</v>
+        <v>1.401452010714081</v>
       </c>
       <c r="C13">
-        <v>0.2189067245023324</v>
+        <v>0.189488402778565</v>
       </c>
       <c r="D13">
-        <v>0.3319296955383493</v>
+        <v>0.2343429880221635</v>
       </c>
       <c r="E13">
-        <v>0.2715353901659583</v>
+        <v>0.1083642564619041</v>
       </c>
       <c r="F13">
-        <v>1.049459109814393</v>
+        <v>0.5433291712996606</v>
       </c>
       <c r="G13">
-        <v>0.0007951069787972553</v>
+        <v>0.2665573359371933</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.11509181039699</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2914670458687567</v>
+        <v>0.2418367421389718</v>
       </c>
       <c r="K13">
-        <v>1.784131490498709</v>
+        <v>0.1772191664538845</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07913258675838009</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.479543534857697</v>
       </c>
       <c r="N13">
-        <v>0.6327807046620286</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.174952202426027</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.682607683614016</v>
+      </c>
+      <c r="Q13">
+        <v>1.020635225984336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.687554760633617</v>
+        <v>1.360851535120673</v>
       </c>
       <c r="C14">
-        <v>0.2152055479304806</v>
+        <v>0.1788181881389193</v>
       </c>
       <c r="D14">
-        <v>0.3262653122147441</v>
+        <v>0.1988717526111259</v>
       </c>
       <c r="E14">
-        <v>0.2669939724302353</v>
+        <v>0.07915713734687202</v>
       </c>
       <c r="F14">
-        <v>1.0390275234179</v>
+        <v>0.4978523502711028</v>
       </c>
       <c r="G14">
-        <v>0.0007958412889987468</v>
+        <v>0.2466370368345778</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1640725241497876</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2866817377270792</v>
+        <v>0.2325143877019329</v>
       </c>
       <c r="K14">
-        <v>1.752288437251138</v>
+        <v>0.170016744668402</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.05562140607337085</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.427889902842878</v>
       </c>
       <c r="N14">
-        <v>0.6402767215271594</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.159510920531062</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.6993084655457054</v>
+      </c>
+      <c r="Q14">
+        <v>0.9588201690726379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.668759635440097</v>
+        <v>1.342193562544537</v>
       </c>
       <c r="C15">
-        <v>0.2129398126973143</v>
+        <v>0.175159782590228</v>
       </c>
       <c r="D15">
-        <v>0.3228009952340898</v>
+        <v>0.1895508775742343</v>
       </c>
       <c r="E15">
-        <v>0.2642184991952519</v>
+        <v>0.07261949359130782</v>
       </c>
       <c r="F15">
-        <v>1.032682315841768</v>
+        <v>0.4861691994481916</v>
       </c>
       <c r="G15">
-        <v>0.0007962923108754316</v>
+        <v>0.2415513738517276</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1764325979077199</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2837591900950258</v>
+        <v>0.2304295913098287</v>
       </c>
       <c r="K15">
-        <v>1.732801719952334</v>
+        <v>0.1686429127560718</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.05135589735034785</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.40620305332277</v>
       </c>
       <c r="N15">
-        <v>0.6448959230087918</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.150161253921766</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.7043983601118313</v>
+      </c>
+      <c r="Q15">
+        <v>0.9436397369825471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.56133676353025</v>
+        <v>1.259288528400447</v>
       </c>
       <c r="C16">
-        <v>0.1999747359552089</v>
+        <v>0.1651325489847864</v>
       </c>
       <c r="D16">
-        <v>0.3030260562584601</v>
+        <v>0.1810117354582985</v>
       </c>
       <c r="E16">
-        <v>0.2484058700341194</v>
+        <v>0.07108103881668981</v>
       </c>
       <c r="F16">
-        <v>0.9969818330537805</v>
+        <v>0.4796158530000767</v>
       </c>
       <c r="G16">
-        <v>0.0007988962282723907</v>
+        <v>0.2392535487772207</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1629945338395089</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2671379562524265</v>
+        <v>0.2323099958952497</v>
       </c>
       <c r="K16">
-        <v>1.621392395789314</v>
+        <v>0.1722470978853945</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0512320489455913</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.320301364338178</v>
       </c>
       <c r="N16">
-        <v>0.6717833760198288</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.098199793060559</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.7125308769979952</v>
+      </c>
+      <c r="Q16">
+        <v>0.9425323940493797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.495673365210877</v>
+        <v>1.217330203830812</v>
       </c>
       <c r="C17">
-        <v>0.1920362495392141</v>
+        <v>0.1630528277820531</v>
       </c>
       <c r="D17">
-        <v>0.2909605840324048</v>
+        <v>0.192752552064519</v>
       </c>
       <c r="E17">
-        <v>0.2387839267041088</v>
+        <v>0.08424771631415595</v>
       </c>
       <c r="F17">
-        <v>0.9756498634653923</v>
+        <v>0.4984875104729483</v>
       </c>
       <c r="G17">
-        <v>0.0008005112389478032</v>
+        <v>0.2480520198239518</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1248723606200457</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2570491492466545</v>
+        <v>0.2387337121875035</v>
       </c>
       <c r="K17">
-        <v>1.553262687251788</v>
+        <v>0.1788794326402652</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06160481520773686</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.281837788564189</v>
       </c>
       <c r="N17">
-        <v>0.6886418088854072</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.06771754785791</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.7101605857479711</v>
+      </c>
+      <c r="Q17">
+        <v>0.9745366612722819</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.457986183577702</v>
+        <v>1.205525510030554</v>
       </c>
       <c r="C18">
-        <v>0.1874751518261064</v>
+        <v>0.1676336349070624</v>
       </c>
       <c r="D18">
-        <v>0.2840436826921575</v>
+        <v>0.2251829255824163</v>
       </c>
       <c r="E18">
-        <v>0.2332770026542406</v>
+        <v>0.1167874082023559</v>
       </c>
       <c r="F18">
-        <v>0.9635813166462839</v>
+        <v>0.5425902981057718</v>
       </c>
       <c r="G18">
-        <v>0.0008014467607281397</v>
+        <v>0.2677238544477873</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07202550934468377</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2512839058031631</v>
+        <v>0.2498781445706442</v>
       </c>
       <c r="K18">
-        <v>1.514149314626621</v>
+        <v>0.189013363491469</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09208038437355981</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.279523344241568</v>
       </c>
       <c r="N18">
-        <v>0.6984689723726292</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.050678462195236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.6994425287664754</v>
+      </c>
+      <c r="Q18">
+        <v>1.039533708642722</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.445239210735224</v>
+        <v>1.218673813358009</v>
       </c>
       <c r="C19">
-        <v>0.1859316245900686</v>
+        <v>0.1774130412516826</v>
       </c>
       <c r="D19">
-        <v>0.2817055368590218</v>
+        <v>0.2750507809317213</v>
       </c>
       <c r="E19">
-        <v>0.2314170120131962</v>
+        <v>0.1706046207338154</v>
       </c>
       <c r="F19">
-        <v>0.9595288923909919</v>
+        <v>0.606103553082356</v>
       </c>
       <c r="G19">
-        <v>0.0008017646612366773</v>
+        <v>0.2954973115825368</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02713016455896167</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2493381580545275</v>
+        <v>0.2642812068484304</v>
       </c>
       <c r="K19">
-        <v>1.500918146351808</v>
+        <v>0.201589437236656</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1515034907989659</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.306401318783799</v>
       </c>
       <c r="N19">
-        <v>0.7018184338498725</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.04499232655769</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.6841554501307101</v>
+      </c>
+      <c r="Q19">
+        <v>1.128581279135929</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.502654854621994</v>
+        <v>1.301727655180827</v>
       </c>
       <c r="C20">
-        <v>0.1928807921781726</v>
+        <v>0.2015977606843506</v>
       </c>
       <c r="D20">
-        <v>0.292242580579682</v>
+        <v>0.3722884529692436</v>
       </c>
       <c r="E20">
-        <v>0.2398053333920984</v>
+        <v>0.2814983838481453</v>
       </c>
       <c r="F20">
-        <v>0.9778997018843825</v>
+        <v>0.7220557375112548</v>
       </c>
       <c r="G20">
-        <v>0.0008003386373672616</v>
+        <v>0.3451023713243799</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002486499654313246</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2581191863936567</v>
+        <v>0.287324098467181</v>
       </c>
       <c r="K20">
-        <v>1.560507509621658</v>
+        <v>0.2205069229989896</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2880193495205958</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.414837477486827</v>
       </c>
       <c r="N20">
-        <v>0.686833611225486</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.070910940636708</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.6553128722724608</v>
+      </c>
+      <c r="Q20">
+        <v>1.282143767768943</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.696572805380782</v>
+        <v>1.466985434473514</v>
       </c>
       <c r="C21">
-        <v>0.2162923894834137</v>
+        <v>0.2270553643574118</v>
       </c>
       <c r="D21">
-        <v>0.3279279702801432</v>
+        <v>0.4218662867530441</v>
       </c>
       <c r="E21">
-        <v>0.2683265799119212</v>
+        <v>0.3218371859678228</v>
       </c>
       <c r="F21">
-        <v>1.042082223726155</v>
+        <v>0.775552031739025</v>
       </c>
       <c r="G21">
-        <v>0.0007956253476757747</v>
+        <v>0.367211977766587</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.004292616471716637</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2880854960866515</v>
+        <v>0.2927676871550204</v>
       </c>
       <c r="K21">
-        <v>1.76163770912359</v>
+        <v>0.2214683897103171</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3313268863828966</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.594847829485076</v>
       </c>
       <c r="N21">
-        <v>0.6380691740589048</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.164023662043263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.6281865234723121</v>
+      </c>
+      <c r="Q21">
+        <v>1.340736559445332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.824168333911331</v>
+        <v>1.573399931343658</v>
       </c>
       <c r="C22">
-        <v>0.2316514809846808</v>
+        <v>0.2428531676937951</v>
       </c>
       <c r="D22">
-        <v>0.351483141288071</v>
+        <v>0.4499668894715967</v>
       </c>
       <c r="E22">
-        <v>0.2872436268627396</v>
+        <v>0.3426698500112551</v>
       </c>
       <c r="F22">
-        <v>1.085996114594039</v>
+        <v>0.8060775416343091</v>
       </c>
       <c r="G22">
-        <v>0.0007926006437595207</v>
+        <v>0.3800300059729693</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.005710538422296518</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.308049195678862</v>
+        <v>0.2955747924746959</v>
       </c>
       <c r="K22">
-        <v>1.893879152321631</v>
+        <v>0.2215383734623089</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3523160272699783</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.709828315345277</v>
       </c>
       <c r="N22">
-        <v>0.6074290580743618</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.229685565048527</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.612083013937692</v>
+      </c>
+      <c r="Q22">
+        <v>1.373990378788562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.755982495814692</v>
+        <v>1.516592525215088</v>
       </c>
       <c r="C23">
-        <v>0.223447974701358</v>
+        <v>0.2344207194065291</v>
       </c>
       <c r="D23">
-        <v>0.3388885304699158</v>
+        <v>0.4349615962715632</v>
       </c>
       <c r="E23">
-        <v>0.2771202473819088</v>
+        <v>0.3315462903552273</v>
       </c>
       <c r="F23">
-        <v>1.062369552174957</v>
+        <v>0.7897122370608116</v>
       </c>
       <c r="G23">
-        <v>0.0007942100471558522</v>
+        <v>0.3731317462371493</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.004931583826117802</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.297357271697976</v>
+        <v>0.2940434744698308</v>
       </c>
       <c r="K23">
-        <v>1.82321987586613</v>
+        <v>0.2214620875955262</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3411094438452267</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.648450504668062</v>
       </c>
       <c r="N23">
-        <v>0.6236663195610221</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.194179850269876</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.6206115977095621</v>
+      </c>
+      <c r="Q23">
+        <v>1.356052476476265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.499498326738262</v>
+        <v>1.301669765812136</v>
       </c>
       <c r="C24">
-        <v>0.1924989657499765</v>
+        <v>0.2024981774748227</v>
       </c>
       <c r="D24">
-        <v>0.2916629288987451</v>
+        <v>0.3782840740158235</v>
       </c>
       <c r="E24">
-        <v>0.2393434783550958</v>
+        <v>0.2895121628270729</v>
       </c>
       <c r="F24">
-        <v>0.9768819429492623</v>
+        <v>0.7292891345075319</v>
       </c>
       <c r="G24">
-        <v>0.0008004166485889987</v>
+        <v>0.3482179591074512</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.002452379537834282</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.257635314230356</v>
+        <v>0.2889534142827443</v>
       </c>
       <c r="K24">
-        <v>1.55723195468849</v>
+        <v>0.2220063163320383</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2987483983209955</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.416184656539798</v>
       </c>
       <c r="N24">
-        <v>0.6876506775370528</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.069465699806528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.6543363438914511</v>
+      </c>
+      <c r="Q24">
+        <v>1.292159364850278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.225851717611874</v>
+        <v>1.070100646630095</v>
       </c>
       <c r="C25">
-        <v>0.1592959702323355</v>
+        <v>0.1680648481015936</v>
       </c>
       <c r="D25">
-        <v>0.2415807349204755</v>
+        <v>0.3174040832681442</v>
       </c>
       <c r="E25">
-        <v>0.1996245267148495</v>
+        <v>0.2443106672347568</v>
       </c>
       <c r="F25">
-        <v>0.8922666840528422</v>
+        <v>0.6671256441035638</v>
       </c>
       <c r="G25">
-        <v>0.000807365841671237</v>
+        <v>0.3236853611122967</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0006837363488492176</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2162028212667053</v>
+        <v>0.2848696113484053</v>
       </c>
       <c r="K25">
-        <v>1.273042266912341</v>
+        <v>0.2242374601681902</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2531571344194532</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.165824480524947</v>
       </c>
       <c r="N25">
-        <v>0.7616291953141772</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.953600832214875</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.6935764442709491</v>
+      </c>
+      <c r="Q25">
+        <v>1.231122626156747</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8995746142132077</v>
+        <v>0.8746675780576254</v>
       </c>
       <c r="C2">
-        <v>0.1426790418956045</v>
+        <v>0.1565898487110218</v>
       </c>
       <c r="D2">
-        <v>0.2727219539824262</v>
+        <v>0.277257345923374</v>
       </c>
       <c r="E2">
-        <v>0.2110814372372189</v>
+        <v>0.2123200720943927</v>
       </c>
       <c r="F2">
-        <v>0.623636771383012</v>
+        <v>0.6070248332242514</v>
       </c>
       <c r="G2">
-        <v>0.3073960252203705</v>
+        <v>0.2765768369985437</v>
       </c>
       <c r="H2">
-        <v>6.402760752433068E-05</v>
+        <v>6.995080424054834E-05</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2829685081473485</v>
+        <v>0.3091896643579659</v>
       </c>
       <c r="K2">
-        <v>0.2271657384075461</v>
+        <v>0.2127703326890718</v>
       </c>
       <c r="L2">
-        <v>0.2195988634359693</v>
+        <v>0.1276489677645785</v>
       </c>
       <c r="M2">
-        <v>0.9813765624785162</v>
+        <v>0.044647175157845</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2191340505877619</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9832538322845039</v>
       </c>
       <c r="P2">
-        <v>0.7247670192001259</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.192234922375434</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.7224302100910798</v>
+      </c>
+      <c r="S2">
+        <v>1.148528005736821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7838820887962754</v>
+        <v>0.766290553498834</v>
       </c>
       <c r="C3">
-        <v>0.1254397446033835</v>
+        <v>0.134878243508993</v>
       </c>
       <c r="D3">
-        <v>0.2424946618253045</v>
+        <v>0.2462865871796964</v>
       </c>
       <c r="E3">
-        <v>0.188563131189234</v>
+        <v>0.1897684824085459</v>
       </c>
       <c r="F3">
-        <v>0.5954426896090794</v>
+        <v>0.5812780604585512</v>
       </c>
       <c r="G3">
-        <v>0.2973509543287278</v>
+        <v>0.2689155541652539</v>
       </c>
       <c r="H3">
-        <v>2.401951982600181E-05</v>
+        <v>1.611496844744487E-05</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2823211885056125</v>
+        <v>0.3071660776537755</v>
       </c>
       <c r="K3">
-        <v>0.2298916083633067</v>
+        <v>0.2162511126357476</v>
       </c>
       <c r="L3">
-        <v>0.1968264442103589</v>
+        <v>0.1325583744106797</v>
       </c>
       <c r="M3">
-        <v>0.8561892461170544</v>
+        <v>0.0435661140411252</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1967282246110358</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.857943360874998</v>
       </c>
       <c r="P3">
-        <v>0.7472619716142965</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.169316386413556</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.7411129766239952</v>
+      </c>
+      <c r="S3">
+        <v>1.130610462224681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.712751839659262</v>
+        <v>0.6994865950445046</v>
       </c>
       <c r="C4">
-        <v>0.1148331812877643</v>
+        <v>0.1216131538377567</v>
       </c>
       <c r="D4">
-        <v>0.2239510624203405</v>
+        <v>0.2273071950505994</v>
       </c>
       <c r="E4">
-        <v>0.1747279830873012</v>
+        <v>0.1759168913318412</v>
       </c>
       <c r="F4">
-        <v>0.5787171615751987</v>
+        <v>0.5659517615226548</v>
       </c>
       <c r="G4">
-        <v>0.2916386651139007</v>
+        <v>0.264656260958013</v>
       </c>
       <c r="H4">
-        <v>0.0001723392107004784</v>
+        <v>0.0001418423483126041</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2822247208747157</v>
+        <v>0.3060747794009373</v>
       </c>
       <c r="K4">
-        <v>0.2319119201739834</v>
+        <v>0.2186536361236247</v>
       </c>
       <c r="L4">
-        <v>0.1828183446413405</v>
+        <v>0.1357703996219826</v>
       </c>
       <c r="M4">
-        <v>0.7791979775325046</v>
+        <v>0.04340949387466964</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1829406892100138</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7808554214250876</v>
       </c>
       <c r="P4">
-        <v>0.7617190061746548</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.156832896607781</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.753228916357596</v>
+      </c>
+      <c r="S4">
+        <v>1.120900678329122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6837378514645138</v>
+        <v>0.6721952322590141</v>
       </c>
       <c r="C5">
-        <v>0.1105049851965134</v>
+        <v>0.1162234523452383</v>
       </c>
       <c r="D5">
-        <v>0.2163970629896994</v>
+        <v>0.219580898237453</v>
       </c>
       <c r="E5">
-        <v>0.1690865706215625</v>
+        <v>0.1702698989243601</v>
       </c>
       <c r="F5">
-        <v>0.5720423873024885</v>
+        <v>0.5598219169387875</v>
       </c>
       <c r="G5">
-        <v>0.2894204307063077</v>
+        <v>0.263027140277039</v>
       </c>
       <c r="H5">
-        <v>0.0002741595206918745</v>
+        <v>0.0002311086857056388</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2822589376698943</v>
+        <v>0.3056670480431123</v>
       </c>
       <c r="K5">
-        <v>0.2328196437696963</v>
+        <v>0.2196972490329898</v>
       </c>
       <c r="L5">
-        <v>0.1771019664244093</v>
+        <v>0.1371290428382181</v>
       </c>
       <c r="M5">
-        <v>0.7477875493412114</v>
+        <v>0.04347184873507892</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1773132152666435</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7494011928490352</v>
       </c>
       <c r="P5">
-        <v>0.767769045933683</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.152130212620989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.7583253108395986</v>
+      </c>
+      <c r="S5">
+        <v>1.117255799450078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6789183060150492</v>
+        <v>0.6676593239249939</v>
       </c>
       <c r="C6">
-        <v>0.1097859187576233</v>
+        <v>0.1153294407508696</v>
       </c>
       <c r="D6">
-        <v>0.2151428492452112</v>
+        <v>0.2182983967348093</v>
       </c>
       <c r="E6">
-        <v>0.1681495724872519</v>
+        <v>0.1693320452515117</v>
       </c>
       <c r="F6">
-        <v>0.5709423839550638</v>
+        <v>0.5588108935584373</v>
       </c>
       <c r="G6">
-        <v>0.2890585710345022</v>
+        <v>0.2627629124283573</v>
       </c>
       <c r="H6">
-        <v>0.000293505741103095</v>
+        <v>0.0002481738001123279</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2822689986943203</v>
+        <v>0.3056015485716443</v>
       </c>
       <c r="K6">
-        <v>0.232975391925164</v>
+        <v>0.2198743781714096</v>
       </c>
       <c r="L6">
-        <v>0.1761522426419191</v>
+        <v>0.1373576480768293</v>
       </c>
       <c r="M6">
-        <v>0.7425695869494575</v>
+        <v>0.0434897854205003</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.17637819950275</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7441757166473764</v>
       </c>
       <c r="P6">
-        <v>0.7687831341038738</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.151372126019936</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.7591810827298957</v>
+      </c>
+      <c r="S6">
+        <v>1.11666904272991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7123606647500083</v>
+        <v>0.6987712183694725</v>
       </c>
       <c r="C7">
-        <v>0.1147748344063757</v>
+        <v>0.1212754469100474</v>
       </c>
       <c r="D7">
-        <v>0.2238491775146514</v>
+        <v>0.2273992931246624</v>
       </c>
       <c r="E7">
-        <v>0.1746519167354705</v>
+        <v>0.1758807671853582</v>
       </c>
       <c r="F7">
-        <v>0.5786265803984563</v>
+        <v>0.5651543688626717</v>
       </c>
       <c r="G7">
-        <v>0.2916083119935351</v>
+        <v>0.2669809787639394</v>
       </c>
       <c r="H7">
-        <v>0.0001735475788755547</v>
+        <v>0.0001436184997782863</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.282224887413463</v>
+        <v>0.3026919860567006</v>
       </c>
       <c r="K7">
-        <v>0.2319238237345616</v>
+        <v>0.2184302536280303</v>
       </c>
       <c r="L7">
-        <v>0.1827412857432904</v>
+        <v>0.1356591582754412</v>
       </c>
       <c r="M7">
-        <v>0.7787745161302269</v>
+        <v>0.04335748238921955</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1828217304476638</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7797386464164617</v>
       </c>
       <c r="P7">
-        <v>0.7617999611788875</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.156767937430359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.7534694470747461</v>
+      </c>
+      <c r="S7">
+        <v>1.119068276359059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8597009108879945</v>
+        <v>0.8361871975659767</v>
       </c>
       <c r="C8">
-        <v>0.1367390834275284</v>
+        <v>0.1481911342289806</v>
       </c>
       <c r="D8">
-        <v>0.262295390914943</v>
+        <v>0.2672301693965267</v>
       </c>
       <c r="E8">
-        <v>0.2033181753371451</v>
+        <v>0.2046805987348108</v>
       </c>
       <c r="F8">
-        <v>0.613790019279719</v>
+        <v>0.5956750093125294</v>
       </c>
       <c r="G8">
-        <v>0.3038349222185133</v>
+        <v>0.2817025835387525</v>
       </c>
       <c r="H8">
-        <v>1.30721201334616E-05</v>
+        <v>1.651200774044348E-05</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2826815173467097</v>
+        <v>0.297497933724479</v>
       </c>
       <c r="K8">
-        <v>0.2280320065086947</v>
+        <v>0.2131406323138947</v>
       </c>
       <c r="L8">
-        <v>0.2117513559595494</v>
+        <v>0.1289237749139023</v>
       </c>
       <c r="M8">
-        <v>0.938235405753943</v>
+        <v>0.0439528623309382</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2112722291082605</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9377494999739042</v>
       </c>
       <c r="P8">
-        <v>0.7323872422753688</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.183993678346596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.7293800219891935</v>
+      </c>
+      <c r="S8">
+        <v>1.136187957596647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.148092999721229</v>
+        <v>1.105006212311253</v>
       </c>
       <c r="C9">
-        <v>0.1796667746788501</v>
+        <v>0.2024898952676608</v>
       </c>
       <c r="D9">
-        <v>0.3378844071806952</v>
+        <v>0.344980131785988</v>
       </c>
       <c r="E9">
-        <v>0.2595243981976978</v>
+        <v>0.2610289684218685</v>
       </c>
       <c r="F9">
-        <v>0.6876910885157912</v>
+        <v>0.6622104607666301</v>
       </c>
       <c r="G9">
-        <v>0.33165816762709</v>
+        <v>0.3056978242513111</v>
       </c>
       <c r="H9">
-        <v>0.001167211162303783</v>
+        <v>0.001111376109342421</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2860667508257109</v>
+        <v>0.3004746456148553</v>
       </c>
       <c r="K9">
-        <v>0.2232778732240668</v>
+        <v>0.2058353500430421</v>
       </c>
       <c r="L9">
-        <v>0.2685080288330823</v>
+        <v>0.1177580992587846</v>
       </c>
       <c r="M9">
-        <v>1.250159135194167</v>
+        <v>0.04939541659876312</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2670440548493787</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.24913386479534</v>
       </c>
       <c r="P9">
-        <v>0.6799907323490864</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.250695693145929</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.6867747106032986</v>
+      </c>
+      <c r="S9">
+        <v>1.187085462544886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.356621946855512</v>
+        <v>1.29674725906645</v>
       </c>
       <c r="C10">
-        <v>0.209493552639529</v>
+        <v>0.2389851279787081</v>
       </c>
       <c r="D10">
-        <v>0.3850364361966143</v>
+        <v>0.3948236062529418</v>
       </c>
       <c r="E10">
-        <v>0.2899472367702884</v>
+        <v>0.2917606420521182</v>
       </c>
       <c r="F10">
-        <v>0.7352013777851027</v>
+        <v>0.700148550349418</v>
       </c>
       <c r="G10">
-        <v>0.3504004738330266</v>
+        <v>0.3361236553131164</v>
       </c>
       <c r="H10">
-        <v>0.003082949601340701</v>
+        <v>0.002888078742478761</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2880558579365271</v>
+        <v>0.2837179005749704</v>
       </c>
       <c r="K10">
-        <v>0.2198188024349079</v>
+        <v>0.1990787084723351</v>
       </c>
       <c r="L10">
-        <v>0.2957919792030594</v>
+        <v>0.1094831659974229</v>
       </c>
       <c r="M10">
-        <v>1.473764791410872</v>
+        <v>0.05479461495676929</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2933940967970017</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.467934001758834</v>
       </c>
       <c r="P10">
-        <v>0.6467856591644718</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.295017032603226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.6623421519554924</v>
+      </c>
+      <c r="S10">
+        <v>1.209214422855823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.422059118075225</v>
+        <v>1.356111511256529</v>
       </c>
       <c r="C11">
-        <v>0.2086087408840172</v>
+        <v>0.2343572343034594</v>
       </c>
       <c r="D11">
-        <v>0.334424293503119</v>
+        <v>0.345694270356887</v>
       </c>
       <c r="E11">
-        <v>0.2163212802787129</v>
+        <v>0.2181384856770308</v>
       </c>
       <c r="F11">
-        <v>0.6705774699729758</v>
+        <v>0.6296369253651619</v>
       </c>
       <c r="G11">
-        <v>0.3221180390499612</v>
+        <v>0.3393761826696391</v>
       </c>
       <c r="H11">
-        <v>0.02146865320072777</v>
+        <v>0.02122925299120482</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.270781035687925</v>
+        <v>0.2371872622063975</v>
       </c>
       <c r="K11">
-        <v>0.2025212988404625</v>
+        <v>0.1811094144023428</v>
       </c>
       <c r="L11">
-        <v>0.1976293358633754</v>
+        <v>0.1008533711472896</v>
       </c>
       <c r="M11">
-        <v>1.52782886525199</v>
+        <v>0.05111998602427015</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1951264365790522</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.512371010932839</v>
       </c>
       <c r="P11">
-        <v>0.6505669487416839</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.199030667524951</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.6750785971785902</v>
+      </c>
+      <c r="S11">
+        <v>1.098269914774377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.43261583517608</v>
+        <v>1.366545666031982</v>
       </c>
       <c r="C12">
-        <v>0.2015824980249192</v>
+        <v>0.2238436248849638</v>
       </c>
       <c r="D12">
-        <v>0.2851524628059394</v>
+        <v>0.2962003605321257</v>
       </c>
       <c r="E12">
-        <v>0.1580245270202916</v>
+        <v>0.159554160472748</v>
       </c>
       <c r="F12">
-        <v>0.6079640213378212</v>
+        <v>0.5671464876174852</v>
       </c>
       <c r="G12">
-        <v>0.2947959928191963</v>
+        <v>0.3259655100622183</v>
       </c>
       <c r="H12">
-        <v>0.05981469084448321</v>
+        <v>0.05957688653360549</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2558682656331257</v>
+        <v>0.2152966692637897</v>
       </c>
       <c r="K12">
-        <v>0.188905728630278</v>
+        <v>0.1686019020113605</v>
       </c>
       <c r="L12">
-        <v>0.1289722332889198</v>
+        <v>0.09592290782105017</v>
       </c>
       <c r="M12">
-        <v>1.525455660183837</v>
+        <v>0.04706332908250666</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1267850553308136</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.505527658526319</v>
       </c>
       <c r="P12">
-        <v>0.6631932177357598</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.10992145659597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.6928314581048198</v>
+      </c>
+      <c r="S12">
+        <v>1.008695264318021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.401452010714081</v>
+        <v>1.340809043918028</v>
       </c>
       <c r="C13">
-        <v>0.189488402778565</v>
+        <v>0.208913351839243</v>
       </c>
       <c r="D13">
-        <v>0.2343429880221635</v>
+        <v>0.2436398606489405</v>
       </c>
       <c r="E13">
-        <v>0.1083642564619041</v>
+        <v>0.1093885345741512</v>
       </c>
       <c r="F13">
-        <v>0.5433291712996606</v>
+        <v>0.5081227118105218</v>
       </c>
       <c r="G13">
-        <v>0.2665573359371933</v>
+        <v>0.2933275873368117</v>
       </c>
       <c r="H13">
-        <v>0.11509181039699</v>
+        <v>0.1148919416126546</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2418367421389718</v>
+        <v>0.2099296595470541</v>
       </c>
       <c r="K13">
-        <v>0.1772191664538845</v>
+        <v>0.159669702039702</v>
       </c>
       <c r="L13">
-        <v>0.07913258675838009</v>
+        <v>0.09318363123514573</v>
       </c>
       <c r="M13">
-        <v>1.479543534857697</v>
+        <v>0.04276878615421076</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07752945599744621</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.460714904762057</v>
       </c>
       <c r="P13">
-        <v>0.682607683614016</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.020635225984336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.7129649430808485</v>
+      </c>
+      <c r="S13">
+        <v>0.9324395515887858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.360851535120673</v>
+        <v>1.306421387359961</v>
       </c>
       <c r="C14">
-        <v>0.1788181881389193</v>
+        <v>0.1965010378309415</v>
       </c>
       <c r="D14">
-        <v>0.1988717526111259</v>
+        <v>0.2064391177427609</v>
       </c>
       <c r="E14">
-        <v>0.07915713734687202</v>
+        <v>0.07979782340109765</v>
       </c>
       <c r="F14">
-        <v>0.4978523502711028</v>
+        <v>0.468509949470743</v>
       </c>
       <c r="G14">
-        <v>0.2466370368345778</v>
+        <v>0.2634753703057129</v>
       </c>
       <c r="H14">
-        <v>0.1640725241497876</v>
+        <v>0.1639103596383507</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2325143877019329</v>
+        <v>0.2120525226408674</v>
       </c>
       <c r="K14">
-        <v>0.170016744668402</v>
+        <v>0.1549436831596527</v>
       </c>
       <c r="L14">
-        <v>0.05562140607337085</v>
+        <v>0.09210996029797336</v>
       </c>
       <c r="M14">
-        <v>1.427889902842878</v>
+        <v>0.03974354173205441</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05447098103236492</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.412193745006817</v>
       </c>
       <c r="P14">
-        <v>0.6993084655457054</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.9588201690726379</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.7278378695468533</v>
+      </c>
+      <c r="S14">
+        <v>0.8846539903704524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.342193562544537</v>
+        <v>1.290344392232385</v>
       </c>
       <c r="C15">
-        <v>0.175159782590228</v>
+        <v>0.1924800927179007</v>
       </c>
       <c r="D15">
-        <v>0.1895508775742343</v>
+        <v>0.1964824238289253</v>
       </c>
       <c r="E15">
-        <v>0.07261949359130782</v>
+        <v>0.07315639125429385</v>
       </c>
       <c r="F15">
-        <v>0.4861691994481916</v>
+        <v>0.459086610462208</v>
       </c>
       <c r="G15">
-        <v>0.2415513738517276</v>
+        <v>0.2532397618148252</v>
       </c>
       <c r="H15">
-        <v>0.1764325979077199</v>
+        <v>0.1762865662819451</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2304295913098287</v>
+        <v>0.2151749294650607</v>
       </c>
       <c r="K15">
-        <v>0.1686429127560718</v>
+        <v>0.1544131571856848</v>
       </c>
       <c r="L15">
-        <v>0.05135589735034785</v>
+        <v>0.09220515788049788</v>
       </c>
       <c r="M15">
-        <v>1.40620305332277</v>
+        <v>0.03896802593108717</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0503396392165385</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.392272126293165</v>
       </c>
       <c r="P15">
-        <v>0.7043983601118313</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.9436397369825471</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.7314828091309735</v>
+      </c>
+      <c r="S15">
+        <v>0.8749918060928223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.259288528400447</v>
+        <v>1.216813262153011</v>
       </c>
       <c r="C16">
-        <v>0.1651325489847864</v>
+        <v>0.1826139547101633</v>
       </c>
       <c r="D16">
-        <v>0.1810117354582985</v>
+        <v>0.1860177125578133</v>
       </c>
       <c r="E16">
-        <v>0.07108103881668981</v>
+        <v>0.07148935481868079</v>
       </c>
       <c r="F16">
-        <v>0.4796158530000767</v>
+        <v>0.4598823185293099</v>
       </c>
       <c r="G16">
-        <v>0.2392535487772207</v>
+        <v>0.2285025766525592</v>
       </c>
       <c r="H16">
-        <v>0.1629945338395089</v>
+        <v>0.1629140065028025</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2323099958952497</v>
+        <v>0.2399499634677582</v>
       </c>
       <c r="K16">
-        <v>0.1722470978853945</v>
+        <v>0.1601598991270325</v>
       </c>
       <c r="L16">
-        <v>0.0512320489455913</v>
+        <v>0.09571303193156666</v>
       </c>
       <c r="M16">
-        <v>1.320301364338178</v>
+        <v>0.03845908742693993</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05050706176622732</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.314637134352267</v>
       </c>
       <c r="P16">
-        <v>0.7125308769979952</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.9425323940493797</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.7314406302201775</v>
+      </c>
+      <c r="S16">
+        <v>0.8922424317098034</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.217330203830812</v>
+        <v>1.178150723144796</v>
       </c>
       <c r="C17">
-        <v>0.1630528277820531</v>
+        <v>0.1812013020409609</v>
       </c>
       <c r="D17">
-        <v>0.192752552064519</v>
+        <v>0.1972629163718125</v>
       </c>
       <c r="E17">
-        <v>0.08424771631415595</v>
+        <v>0.08472000550338876</v>
       </c>
       <c r="F17">
-        <v>0.4984875104729483</v>
+        <v>0.480882619421223</v>
       </c>
       <c r="G17">
-        <v>0.2480520198239518</v>
+        <v>0.2277508556335306</v>
       </c>
       <c r="H17">
-        <v>0.1248723606200457</v>
+        <v>0.1248174830475079</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2387337121875035</v>
+        <v>0.2569389530894597</v>
       </c>
       <c r="K17">
-        <v>0.1788794326402652</v>
+        <v>0.1670257323442659</v>
       </c>
       <c r="L17">
-        <v>0.06160481520773686</v>
+        <v>0.09918217092368486</v>
       </c>
       <c r="M17">
-        <v>1.281837788564189</v>
+        <v>0.03952492461716162</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06092076320255302</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.279744157205414</v>
       </c>
       <c r="P17">
-        <v>0.7101605857479711</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.9745366612722819</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.7249068331813291</v>
+      </c>
+      <c r="S17">
+        <v>0.9296656067092499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.205525510030554</v>
+        <v>1.165722230644377</v>
       </c>
       <c r="C18">
-        <v>0.1676336349070624</v>
+        <v>0.187567672119755</v>
       </c>
       <c r="D18">
-        <v>0.2251829255824163</v>
+        <v>0.2300111104283644</v>
       </c>
       <c r="E18">
-        <v>0.1167874082023559</v>
+        <v>0.117448703904639</v>
       </c>
       <c r="F18">
-        <v>0.5425902981057718</v>
+        <v>0.5241831643801618</v>
       </c>
       <c r="G18">
-        <v>0.2677238544477873</v>
+        <v>0.2421687569944311</v>
       </c>
       <c r="H18">
-        <v>0.07202550934468377</v>
+        <v>0.07197542370596466</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2498781445706442</v>
+        <v>0.2723319030863678</v>
       </c>
       <c r="K18">
-        <v>0.189013363491469</v>
+        <v>0.1761724600348842</v>
       </c>
       <c r="L18">
-        <v>0.09208038437355981</v>
+        <v>0.1032222120217856</v>
       </c>
       <c r="M18">
-        <v>1.279523344241568</v>
+        <v>0.04213837399539599</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.09125847457508129</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.279044893104668</v>
       </c>
       <c r="P18">
-        <v>0.6994425287664754</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.039533708642722</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.7119435241854859</v>
+      </c>
+      <c r="S18">
+        <v>0.9929073690652359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.218673813358009</v>
+        <v>1.175501159604636</v>
       </c>
       <c r="C19">
-        <v>0.1774130412516826</v>
+        <v>0.2002034775074009</v>
       </c>
       <c r="D19">
-        <v>0.2750507809317213</v>
+        <v>0.2807575876232846</v>
       </c>
       <c r="E19">
-        <v>0.1706046207338154</v>
+        <v>0.1715503964839122</v>
       </c>
       <c r="F19">
-        <v>0.606103553082356</v>
+        <v>0.5849293693295863</v>
       </c>
       <c r="G19">
-        <v>0.2954973115825368</v>
+        <v>0.2665867704265992</v>
       </c>
       <c r="H19">
-        <v>0.02713016455896167</v>
+        <v>0.02706719758140252</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2642812068484304</v>
+        <v>0.2872758078416169</v>
       </c>
       <c r="K19">
-        <v>0.201589437236656</v>
+        <v>0.1869208105438389</v>
       </c>
       <c r="L19">
-        <v>0.1515034907989659</v>
+        <v>0.1075488164803975</v>
       </c>
       <c r="M19">
-        <v>1.306401318783799</v>
+        <v>0.0459700974525763</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.150383700116123</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.306509497865449</v>
       </c>
       <c r="P19">
-        <v>0.6841554501307101</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.128581279135929</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.6954890135443463</v>
+      </c>
+      <c r="S19">
+        <v>1.075515913581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.301727655180827</v>
+        <v>1.24764109437973</v>
       </c>
       <c r="C20">
-        <v>0.2015977606843506</v>
+        <v>0.2303091061367866</v>
       </c>
       <c r="D20">
-        <v>0.3722884529692436</v>
+        <v>0.38062767755045</v>
       </c>
       <c r="E20">
-        <v>0.2814983838481453</v>
+        <v>0.283076409367311</v>
       </c>
       <c r="F20">
-        <v>0.7220557375112548</v>
+        <v>0.6921216423436007</v>
       </c>
       <c r="G20">
-        <v>0.3451023713243799</v>
+        <v>0.3190157958856119</v>
       </c>
       <c r="H20">
-        <v>0.002486499654313246</v>
+        <v>0.002343295627227349</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.287324098467181</v>
+        <v>0.2988714557792065</v>
       </c>
       <c r="K20">
-        <v>0.2205069229989896</v>
+        <v>0.2014747210167087</v>
       </c>
       <c r="L20">
-        <v>0.2880193495205958</v>
+        <v>0.111833628371901</v>
       </c>
       <c r="M20">
-        <v>1.414837477486827</v>
+        <v>0.05351433223153457</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2860186579295316</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.412871052387629</v>
       </c>
       <c r="P20">
-        <v>0.6553128722724608</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.282143767768943</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.6676816386506417</v>
+      </c>
+      <c r="S20">
+        <v>1.208600810894126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.466985434473514</v>
+        <v>1.39187870843935</v>
       </c>
       <c r="C21">
-        <v>0.2270553643574118</v>
+        <v>0.2563217846796277</v>
       </c>
       <c r="D21">
-        <v>0.4218662867530441</v>
+        <v>0.4365407607630516</v>
       </c>
       <c r="E21">
-        <v>0.3218371859678228</v>
+        <v>0.3245790702963234</v>
       </c>
       <c r="F21">
-        <v>0.775552031739025</v>
+        <v>0.7235757479041425</v>
       </c>
       <c r="G21">
-        <v>0.367211977766587</v>
+        <v>0.3989792416967504</v>
       </c>
       <c r="H21">
-        <v>0.004292616471716637</v>
+        <v>0.003946348996202831</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2927676871550204</v>
+        <v>0.2388795364891507</v>
       </c>
       <c r="K21">
-        <v>0.2214683897103171</v>
+        <v>0.1950064093728372</v>
       </c>
       <c r="L21">
-        <v>0.3313268863828966</v>
+        <v>0.1052879727821328</v>
       </c>
       <c r="M21">
-        <v>1.594847829485076</v>
+        <v>0.05764875058074281</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3276929716284513</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.575355140487801</v>
       </c>
       <c r="P21">
-        <v>0.6281865234723121</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.340736559445332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.65183356825451</v>
+      </c>
+      <c r="S21">
+        <v>1.214232666885849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.573399931343658</v>
+        <v>1.483987866332285</v>
       </c>
       <c r="C22">
-        <v>0.2428531676937951</v>
+        <v>0.2717842798064396</v>
       </c>
       <c r="D22">
-        <v>0.4499668894715967</v>
+        <v>0.4691604745178779</v>
       </c>
       <c r="E22">
-        <v>0.3426698500112551</v>
+        <v>0.3462539910615163</v>
       </c>
       <c r="F22">
-        <v>0.8060775416343091</v>
+        <v>0.7385819119856194</v>
       </c>
       <c r="G22">
-        <v>0.3800300059729693</v>
+        <v>0.4580186619283069</v>
       </c>
       <c r="H22">
-        <v>0.005710538422296518</v>
+        <v>0.00520018455150939</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2955747924746959</v>
+        <v>0.2054103381294539</v>
       </c>
       <c r="K22">
-        <v>0.2215383734623089</v>
+        <v>0.1899624832399027</v>
       </c>
       <c r="L22">
-        <v>0.3523160272699783</v>
+        <v>0.1009454547218116</v>
       </c>
       <c r="M22">
-        <v>1.709828315345277</v>
+        <v>0.06022273296960634</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3475768110963458</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.677445135387842</v>
       </c>
       <c r="P22">
-        <v>0.612083013937692</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.373990378788562</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.6440010738914097</v>
+      </c>
+      <c r="S22">
+        <v>1.210286688105356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.516592525215088</v>
+        <v>1.435808977983726</v>
       </c>
       <c r="C23">
-        <v>0.2344207194065291</v>
+        <v>0.2642901431478037</v>
       </c>
       <c r="D23">
-        <v>0.4349615962715632</v>
+        <v>0.4511651803622669</v>
       </c>
       <c r="E23">
-        <v>0.3315462903552273</v>
+        <v>0.3345557146625282</v>
       </c>
       <c r="F23">
-        <v>0.7897122370608116</v>
+        <v>0.7324366194443996</v>
       </c>
       <c r="G23">
-        <v>0.3731317462371493</v>
+        <v>0.4186182775597302</v>
       </c>
       <c r="H23">
-        <v>0.004931583826117802</v>
+        <v>0.004518710407998117</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2940434744698308</v>
+        <v>0.2277276335167144</v>
       </c>
       <c r="K23">
-        <v>0.2214620875955262</v>
+        <v>0.1932130034183501</v>
       </c>
       <c r="L23">
-        <v>0.3411094438452267</v>
+        <v>0.1034219907678082</v>
       </c>
       <c r="M23">
-        <v>1.648450504668062</v>
+        <v>0.05907668539778754</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3370704096805923</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.62490832322095</v>
       </c>
       <c r="P23">
-        <v>0.6206115977095621</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.356052476476265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.6473719706384671</v>
+      </c>
+      <c r="S23">
+        <v>1.216905828989297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.301669765812136</v>
+        <v>1.247371475189311</v>
       </c>
       <c r="C24">
-        <v>0.2024981774748227</v>
+        <v>0.2315194504865303</v>
       </c>
       <c r="D24">
-        <v>0.3782840740158235</v>
+        <v>0.3866965279990495</v>
       </c>
       <c r="E24">
-        <v>0.2895121628270729</v>
+        <v>0.291120181038103</v>
       </c>
       <c r="F24">
-        <v>0.7292891345075319</v>
+        <v>0.6991440449654576</v>
       </c>
       <c r="G24">
-        <v>0.3482179591074512</v>
+        <v>0.3214393627766512</v>
       </c>
       <c r="H24">
-        <v>0.002452379537834282</v>
+        <v>0.002306684114944058</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2889534142827443</v>
+        <v>0.3009687978784967</v>
       </c>
       <c r="K24">
-        <v>0.2220063163320383</v>
+        <v>0.2027965813872292</v>
       </c>
       <c r="L24">
-        <v>0.2987483983209955</v>
+        <v>0.112397491635253</v>
       </c>
       <c r="M24">
-        <v>1.416184656539798</v>
+        <v>0.0539388158493832</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2967139561197598</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.414381697322824</v>
       </c>
       <c r="P24">
-        <v>0.6543363438914511</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.292159364850278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.6664320464664399</v>
+      </c>
+      <c r="S24">
+        <v>1.218152257503846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.070100646630095</v>
+        <v>1.032969712860734</v>
       </c>
       <c r="C25">
-        <v>0.1680648481015936</v>
+        <v>0.1881301444600183</v>
       </c>
       <c r="D25">
-        <v>0.3174040832681442</v>
+        <v>0.323611532163639</v>
       </c>
       <c r="E25">
-        <v>0.2443106672347568</v>
+        <v>0.2457149778158865</v>
       </c>
       <c r="F25">
-        <v>0.6671256441035638</v>
+        <v>0.644750604107692</v>
       </c>
       <c r="G25">
-        <v>0.3236853611122967</v>
+        <v>0.2953615753638559</v>
       </c>
       <c r="H25">
-        <v>0.0006837363488492176</v>
+        <v>0.0006602698134154927</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2848696113484053</v>
+        <v>0.3041289142103878</v>
       </c>
       <c r="K25">
-        <v>0.2242374601681902</v>
+        <v>0.2078866538462414</v>
       </c>
       <c r="L25">
-        <v>0.2531571344194532</v>
+        <v>0.1207479953429669</v>
       </c>
       <c r="M25">
-        <v>1.165824480524947</v>
+        <v>0.0475878295833656</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2520257342396945</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.165984602868662</v>
       </c>
       <c r="P25">
-        <v>0.6935764442709491</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.231122626156747</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.6974073062504225</v>
+      </c>
+      <c r="S25">
+        <v>1.174579774456816</v>
       </c>
     </row>
   </sheetData>
